--- a/黑色/铁矿/eta/铁矿期货价格_月度数据.xlsx
+++ b/黑色/铁矿/eta/铁矿期货价格_月度数据.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>809.8207</v>
+        <v>815.1182</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.2917</v>
+        <v>780.75</v>
       </c>
       <c r="C4" t="n">
-        <v>787.0188000000001</v>
+        <v>782.9909</v>
       </c>
     </row>
     <row r="5">
